--- a/Planilhas/Trabalho RACA NACIONAL.xlsx
+++ b/Planilhas/Trabalho RACA NACIONAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,32 +446,42 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>id_produto</t>
+          <t>Categoria</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Categoria</t>
+          <t>Força de Trabalho</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+          <t>unidade</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>unidade</t>
+          <t>ano</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ano</t>
+          <t>Trimestre</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Trimestre</t>
+          <t>Ocupadas</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Desocupadas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Fora da Força de Trabalho</t>
         </is>
       </c>
     </row>
@@ -488,31 +498,33 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D2" t="n">
+        <v>45906</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>45906</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
           <t>01/01/2012</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>42845</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3062</v>
+      </c>
+      <c r="J2" t="n">
+        <v>27330</v>
       </c>
     </row>
     <row r="3">
@@ -528,31 +540,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>46272</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>46272</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
           <t>01/01/2012</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>43401</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2871</v>
+      </c>
+      <c r="J3" t="n">
+        <v>26251</v>
       </c>
     </row>
     <row r="4">
@@ -568,31 +582,33 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>46189</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>46189</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
           <t>01/01/2012</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>43537</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2652</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26159</v>
       </c>
     </row>
     <row r="5">
@@ -608,31 +624,33 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D5" t="n">
+        <v>45899</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>45899</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
           <t>01/01/2012</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>43390</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2509</v>
+      </c>
+      <c r="J5" t="n">
+        <v>26130</v>
       </c>
     </row>
     <row r="6">
@@ -648,31 +666,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D6" t="n">
+        <v>45562</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>45562</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
           <t>01/01/2013</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>42670</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2892</v>
+      </c>
+      <c r="J6" t="n">
+        <v>26194</v>
       </c>
     </row>
     <row r="7">
@@ -688,31 +708,33 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D7" t="n">
+        <v>46118</v>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>46118</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
           <t>01/01/2013</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>43349</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2769</v>
+      </c>
+      <c r="J7" t="n">
+        <v>26080</v>
       </c>
     </row>
     <row r="8">
@@ -728,31 +750,33 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D8" t="n">
+        <v>46395</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>46395</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
           <t>01/01/2013</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>43753</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2642</v>
+      </c>
+      <c r="J8" t="n">
+        <v>26611</v>
       </c>
     </row>
     <row r="9">
@@ -768,31 +792,33 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D9" t="n">
+        <v>46040</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>46040</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
           <t>01/01/2013</t>
         </is>
       </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>43714</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2326</v>
+      </c>
+      <c r="J9" t="n">
+        <v>26905</v>
       </c>
     </row>
     <row r="10">
@@ -808,31 +834,33 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D10" t="n">
+        <v>46095</v>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>46095</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
           <t>01/01/2014</t>
         </is>
       </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>43399</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2696</v>
+      </c>
+      <c r="J10" t="n">
+        <v>27188</v>
       </c>
     </row>
     <row r="11">
@@ -848,31 +876,33 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D11" t="n">
+        <v>46175</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>46175</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
           <t>01/01/2014</t>
         </is>
       </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>43600</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2575</v>
+      </c>
+      <c r="J11" t="n">
+        <v>27232</v>
       </c>
     </row>
     <row r="12">
@@ -888,31 +918,33 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>45735</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>45735</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
           <t>01/01/2014</t>
         </is>
       </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>43158</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2577</v>
+      </c>
+      <c r="J12" t="n">
+        <v>26960</v>
       </c>
     </row>
     <row r="13">
@@ -928,31 +960,33 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D13" t="n">
+        <v>45890</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>45890</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
           <t>01/01/2014</t>
         </is>
       </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>43400</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2490</v>
+      </c>
+      <c r="J13" t="n">
+        <v>26958</v>
       </c>
     </row>
     <row r="14">
@@ -968,31 +1002,33 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>45728</v>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>45728</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
           <t>01/01/2015</t>
         </is>
       </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>42744</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2984</v>
+      </c>
+      <c r="J14" t="n">
+        <v>26792</v>
       </c>
     </row>
     <row r="15">
@@ -1008,31 +1044,33 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D15" t="n">
+        <v>46450</v>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>46450</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
           <t>01/01/2015</t>
         </is>
       </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>43261</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3189</v>
+      </c>
+      <c r="J15" t="n">
+        <v>26899</v>
       </c>
     </row>
     <row r="16">
@@ -1048,31 +1086,33 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D16" t="n">
+        <v>46560</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>46560</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
           <t>01/01/2015</t>
         </is>
       </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>43144</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3416</v>
+      </c>
+      <c r="J16" t="n">
+        <v>26874</v>
       </c>
     </row>
     <row r="17">
@@ -1088,31 +1128,33 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D17" t="n">
+        <v>46801</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>46801</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
           <t>01/01/2015</t>
         </is>
       </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>43306</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3494</v>
+      </c>
+      <c r="J17" t="n">
+        <v>26672</v>
       </c>
     </row>
     <row r="18">
@@ -1128,31 +1170,33 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D18" t="n">
+        <v>46456</v>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>46456</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
           <t>01/01/2016</t>
         </is>
       </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>42314</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4142</v>
+      </c>
+      <c r="J18" t="n">
+        <v>26554</v>
       </c>
     </row>
     <row r="19">
@@ -1168,31 +1212,33 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D19" t="n">
+        <v>46901</v>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>46901</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
           <t>01/01/2016</t>
         </is>
       </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>42525</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4376</v>
+      </c>
+      <c r="J19" t="n">
+        <v>26529</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1254,33 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D20" t="n">
+        <v>46371</v>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>46371</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
           <t>01/01/2016</t>
         </is>
       </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>41895</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4477</v>
+      </c>
+      <c r="J20" t="n">
+        <v>26698</v>
       </c>
     </row>
     <row r="21">
@@ -1248,31 +1296,33 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D21" t="n">
+        <v>45951</v>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>45951</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
           <t>01/01/2016</t>
         </is>
       </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>41538</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4412</v>
+      </c>
+      <c r="J21" t="n">
+        <v>25991</v>
       </c>
     </row>
     <row r="22">
@@ -1288,31 +1338,33 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D22" t="n">
+        <v>46136</v>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>46136</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
           <t>01/01/2017</t>
         </is>
       </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>41067</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5069</v>
+      </c>
+      <c r="J22" t="n">
+        <v>25853</v>
       </c>
     </row>
     <row r="23">
@@ -1328,31 +1380,33 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D23" t="n">
+        <v>46125</v>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>46125</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
           <t>01/01/2017</t>
         </is>
       </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>41332</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4793</v>
+      </c>
+      <c r="J23" t="n">
+        <v>25864</v>
       </c>
     </row>
     <row r="24">
@@ -1368,31 +1422,33 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D24" t="n">
+        <v>46485</v>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>46485</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
           <t>01/01/2017</t>
         </is>
       </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>41857</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4628</v>
+      </c>
+      <c r="J24" t="n">
+        <v>25793</v>
       </c>
     </row>
     <row r="25">
@@ -1408,31 +1464,33 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D25" t="n">
+        <v>46104</v>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>46104</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
           <t>01/01/2017</t>
         </is>
       </c>
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>41696</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4408</v>
+      </c>
+      <c r="J25" t="n">
+        <v>25501</v>
       </c>
     </row>
     <row r="26">
@@ -1448,31 +1506,33 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D26" t="n">
+        <v>45837</v>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>45837</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
           <t>01/01/2018</t>
         </is>
       </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>40976</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4861</v>
+      </c>
+      <c r="J26" t="n">
+        <v>25599</v>
       </c>
     </row>
     <row r="27">
@@ -1488,31 +1548,33 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D27" t="n">
+        <v>45762</v>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>45762</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
           <t>01/01/2018</t>
         </is>
       </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>41184</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4578</v>
+      </c>
+      <c r="J27" t="n">
+        <v>25793</v>
       </c>
     </row>
     <row r="28">
@@ -1528,31 +1590,33 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D28" t="n">
+        <v>46273</v>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>46273</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
           <t>01/01/2018</t>
         </is>
       </c>
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>41897</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4377</v>
+      </c>
+      <c r="J28" t="n">
+        <v>25602</v>
       </c>
     </row>
     <row r="29">
@@ -1568,31 +1632,33 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D29" t="n">
+        <v>45984</v>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>45984</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
           <t>01/01/2018</t>
         </is>
       </c>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>41702</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4282</v>
+      </c>
+      <c r="J29" t="n">
+        <v>25614</v>
       </c>
     </row>
     <row r="30">
@@ -1608,31 +1674,33 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D30" t="n">
+        <v>46318</v>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>46318</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
           <t>01/01/2019</t>
         </is>
       </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>41559</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4759</v>
+      </c>
+      <c r="J30" t="n">
+        <v>25440</v>
       </c>
     </row>
     <row r="31">
@@ -1648,31 +1716,33 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D31" t="n">
+        <v>46613</v>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>46613</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
           <t>01/01/2019</t>
         </is>
       </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>42137</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4477</v>
+      </c>
+      <c r="J31" t="n">
+        <v>25291</v>
       </c>
     </row>
     <row r="32">
@@ -1688,31 +1758,33 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D32" t="n">
+        <v>46468</v>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>46468</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
           <t>01/01/2019</t>
         </is>
       </c>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>42154</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4314</v>
+      </c>
+      <c r="J32" t="n">
+        <v>25567</v>
       </c>
     </row>
     <row r="33">
@@ -1728,31 +1800,33 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D33" t="n">
+        <v>46030</v>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>46030</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
           <t>01/01/2019</t>
         </is>
       </c>
+      <c r="G33" t="n">
+        <v>4</v>
+      </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>41999</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4032</v>
+      </c>
+      <c r="J33" t="n">
+        <v>25121</v>
       </c>
     </row>
     <row r="34">
@@ -1768,31 +1842,33 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D34" t="n">
+        <v>46058</v>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>46058</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
           <t>01/01/2020</t>
         </is>
       </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>41512</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4546</v>
+      </c>
+      <c r="J34" t="n">
+        <v>26201</v>
       </c>
     </row>
     <row r="35">
@@ -1808,31 +1884,33 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D35" t="n">
+        <v>43573</v>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>43573</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
           <t>01/01/2020</t>
         </is>
       </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>38959</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4614</v>
+      </c>
+      <c r="J35" t="n">
+        <v>30262</v>
       </c>
     </row>
     <row r="36">
@@ -1848,31 +1926,33 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D36" t="n">
+        <v>43371</v>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>43371</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
           <t>01/01/2020</t>
         </is>
       </c>
+      <c r="G36" t="n">
+        <v>3</v>
+      </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>38154</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5217</v>
+      </c>
+      <c r="J36" t="n">
+        <v>30889</v>
       </c>
     </row>
     <row r="37">
@@ -1888,31 +1968,33 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D37" t="n">
+        <v>45246</v>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>45246</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
           <t>01/01/2020</t>
         </is>
       </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>39983</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5263</v>
+      </c>
+      <c r="J37" t="n">
+        <v>29954</v>
       </c>
     </row>
     <row r="38">
@@ -1928,31 +2010,33 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D38" t="n">
+        <v>45249</v>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>45249</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
           <t>01/01/2021</t>
         </is>
       </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>39792</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5456</v>
+      </c>
+      <c r="J38" t="n">
+        <v>30095</v>
       </c>
     </row>
     <row r="39">
@@ -1968,31 +2052,33 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D39" t="n">
+        <v>45961</v>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>45961</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
           <t>01/01/2021</t>
         </is>
       </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>40563</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5398</v>
+      </c>
+      <c r="J39" t="n">
+        <v>29120</v>
       </c>
     </row>
     <row r="40">
@@ -2008,31 +2094,33 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D40" t="n">
+        <v>46539</v>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>46539</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
           <t>01/01/2021</t>
         </is>
       </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>41740</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4799</v>
+      </c>
+      <c r="J40" t="n">
+        <v>28241</v>
       </c>
     </row>
     <row r="41">
@@ -2048,31 +2136,33 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D41" t="n">
+        <v>47083</v>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>47083</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
           <t>01/01/2021</t>
         </is>
       </c>
+      <c r="G41" t="n">
+        <v>4</v>
+      </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>42834</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4249</v>
+      </c>
+      <c r="J41" t="n">
+        <v>27546</v>
       </c>
     </row>
     <row r="42">
@@ -2088,31 +2178,33 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D42" t="n">
+        <v>46744</v>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>46744</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
           <t>01/01/2022</t>
         </is>
       </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>42591</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4153</v>
+      </c>
+      <c r="J42" t="n">
+        <v>27809</v>
       </c>
     </row>
     <row r="43">
@@ -2128,31 +2220,33 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D43" t="n">
+        <v>47276</v>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>47276</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
           <t>01/01/2022</t>
         </is>
       </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>43818</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3458</v>
+      </c>
+      <c r="J43" t="n">
+        <v>27570</v>
       </c>
     </row>
     <row r="44">
@@ -2168,31 +2262,33 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D44" t="n">
+        <v>47362</v>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>47362</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
           <t>01/01/2022</t>
         </is>
       </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>44142</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3220</v>
+      </c>
+      <c r="J44" t="n">
+        <v>27643</v>
       </c>
     </row>
     <row r="45">
@@ -2208,31 +2304,33 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D45" t="n">
+        <v>46779</v>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>46779</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
           <t>01/01/2022</t>
         </is>
       </c>
+      <c r="G45" t="n">
+        <v>4</v>
+      </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>43897</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2882</v>
+      </c>
+      <c r="J45" t="n">
+        <v>27808</v>
       </c>
     </row>
     <row r="46">
@@ -2248,31 +2346,33 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D46" t="n">
+        <v>46392</v>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>46392</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
           <t>01/01/2023</t>
         </is>
       </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>43255</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3137</v>
+      </c>
+      <c r="J46" t="n">
+        <v>28132</v>
       </c>
     </row>
     <row r="47">
@@ -2288,31 +2388,33 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D47" t="n">
+        <v>46742</v>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>46742</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
           <t>01/01/2023</t>
         </is>
       </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>43820</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2922</v>
+      </c>
+      <c r="J47" t="n">
+        <v>28232</v>
       </c>
     </row>
     <row r="48">
@@ -2328,31 +2430,33 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D48" t="n">
+        <v>46915</v>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>46915</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
           <t>01/01/2023</t>
         </is>
       </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>44125</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2790</v>
+      </c>
+      <c r="J48" t="n">
+        <v>28215</v>
       </c>
     </row>
     <row r="49">
@@ -2368,31 +2472,33 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D49" t="n">
+        <v>46983</v>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>46983</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
           <t>01/01/2023</t>
         </is>
       </c>
+      <c r="G49" t="n">
+        <v>4</v>
+      </c>
       <c r="H49" t="n">
-        <v>4</v>
+        <v>44227</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2756</v>
+      </c>
+      <c r="J49" t="n">
+        <v>27866</v>
       </c>
     </row>
     <row r="50">
@@ -2408,31 +2514,33 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D50" t="n">
+        <v>8075</v>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>8075</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
           <t>01/01/2012</t>
         </is>
       </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>7292</v>
+      </c>
+      <c r="I50" t="n">
+        <v>783</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4344</v>
       </c>
     </row>
     <row r="51">
@@ -2448,31 +2556,33 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D51" t="n">
+        <v>7511</v>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>7511</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
           <t>01/01/2012</t>
         </is>
       </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>6786</v>
+      </c>
+      <c r="I51" t="n">
+        <v>725</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4005</v>
       </c>
     </row>
     <row r="52">
@@ -2488,31 +2598,33 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D52" t="n">
+        <v>7555</v>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>7555</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
           <t>01/01/2012</t>
         </is>
       </c>
+      <c r="G52" t="n">
+        <v>3</v>
+      </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>6915</v>
+      </c>
+      <c r="I52" t="n">
+        <v>641</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3975</v>
       </c>
     </row>
     <row r="53">
@@ -2528,31 +2640,33 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D53" t="n">
+        <v>7497</v>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>7497</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
           <t>01/01/2012</t>
         </is>
       </c>
+      <c r="G53" t="n">
+        <v>4</v>
+      </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>6849</v>
+      </c>
+      <c r="I53" t="n">
+        <v>649</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4026</v>
       </c>
     </row>
     <row r="54">
@@ -2568,31 +2682,33 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D54" t="n">
+        <v>7349</v>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>7349</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
           <t>01/01/2013</t>
         </is>
       </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>6614</v>
+      </c>
+      <c r="I54" t="n">
+        <v>734</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3940</v>
       </c>
     </row>
     <row r="55">
@@ -2608,31 +2724,33 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D55" t="n">
+        <v>7258</v>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>7258</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
           <t>01/01/2013</t>
         </is>
       </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>6589</v>
+      </c>
+      <c r="I55" t="n">
+        <v>669</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3958</v>
       </c>
     </row>
     <row r="56">
@@ -2648,31 +2766,33 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D56" t="n">
+        <v>7665</v>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>7665</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
           <t>01/01/2013</t>
         </is>
       </c>
+      <c r="G56" t="n">
+        <v>3</v>
+      </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>7032</v>
+      </c>
+      <c r="I56" t="n">
+        <v>633</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4112</v>
       </c>
     </row>
     <row r="57">
@@ -2688,31 +2808,33 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D57" t="n">
+        <v>7780</v>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>7780</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
           <t>01/01/2013</t>
         </is>
       </c>
+      <c r="G57" t="n">
+        <v>4</v>
+      </c>
       <c r="H57" t="n">
-        <v>4</v>
+        <v>7132</v>
+      </c>
+      <c r="I57" t="n">
+        <v>648</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4124</v>
       </c>
     </row>
     <row r="58">
@@ -2728,31 +2850,33 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D58" t="n">
+        <v>7747</v>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>7747</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
           <t>01/01/2014</t>
         </is>
       </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>7033</v>
+      </c>
+      <c r="I58" t="n">
+        <v>714</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4153</v>
       </c>
     </row>
     <row r="59">
@@ -2768,31 +2892,33 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D59" t="n">
+        <v>7764</v>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>7764</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
           <t>01/01/2014</t>
         </is>
       </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>7082</v>
+      </c>
+      <c r="I59" t="n">
+        <v>681</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4173</v>
       </c>
     </row>
     <row r="60">
@@ -2808,31 +2934,33 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D60" t="n">
+        <v>7856</v>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>7856</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
           <t>01/01/2014</t>
         </is>
       </c>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>7157</v>
+      </c>
+      <c r="I60" t="n">
+        <v>699</v>
+      </c>
+      <c r="J60" t="n">
+        <v>4265</v>
       </c>
     </row>
     <row r="61">
@@ -2848,31 +2976,33 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D61" t="n">
+        <v>7917</v>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>7917</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
           <t>01/01/2014</t>
         </is>
       </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
       <c r="H61" t="n">
-        <v>4</v>
+        <v>7280</v>
+      </c>
+      <c r="I61" t="n">
+        <v>637</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4245</v>
       </c>
     </row>
     <row r="62">
@@ -2888,31 +3018,33 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D62" t="n">
+        <v>7928</v>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>7928</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
           <t>01/01/2015</t>
         </is>
       </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>7136</v>
+      </c>
+      <c r="I62" t="n">
+        <v>792</v>
+      </c>
+      <c r="J62" t="n">
+        <v>4238</v>
       </c>
     </row>
     <row r="63">
@@ -2928,31 +3060,33 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D63" t="n">
+        <v>7982</v>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>7982</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
           <t>01/01/2015</t>
         </is>
       </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>7164</v>
+      </c>
+      <c r="I63" t="n">
+        <v>818</v>
+      </c>
+      <c r="J63" t="n">
+        <v>4171</v>
       </c>
     </row>
     <row r="64">
@@ -2968,31 +3102,33 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D64" t="n">
+        <v>8269</v>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>8269</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
           <t>01/01/2015</t>
         </is>
       </c>
+      <c r="G64" t="n">
+        <v>3</v>
+      </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>7360</v>
+      </c>
+      <c r="I64" t="n">
+        <v>909</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4288</v>
       </c>
     </row>
     <row r="65">
@@ -3008,31 +3144,33 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D65" t="n">
+        <v>8853</v>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>8853</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
           <t>01/01/2015</t>
         </is>
       </c>
+      <c r="G65" t="n">
+        <v>4</v>
+      </c>
       <c r="H65" t="n">
-        <v>4</v>
+        <v>7849</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1004</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4603</v>
       </c>
     </row>
     <row r="66">
@@ -3048,31 +3186,33 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D66" t="n">
+        <v>8823</v>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>8823</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
           <t>01/01/2016</t>
         </is>
       </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>7605</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1218</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4509</v>
       </c>
     </row>
     <row r="67">
@@ -3088,31 +3228,33 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D67" t="n">
+        <v>8859</v>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>8859</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
           <t>01/01/2016</t>
         </is>
       </c>
+      <c r="G67" t="n">
+        <v>2</v>
+      </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>7541</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1318</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4563</v>
       </c>
     </row>
     <row r="68">
@@ -3128,31 +3270,33 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D68" t="n">
+        <v>8921</v>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>8921</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
           <t>01/01/2016</t>
         </is>
       </c>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>7612</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1310</v>
+      </c>
+      <c r="J68" t="n">
+        <v>4649</v>
       </c>
     </row>
     <row r="69">
@@ -3168,31 +3312,33 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D69" t="n">
+        <v>9458</v>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>9458</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
           <t>01/01/2016</t>
         </is>
       </c>
+      <c r="G69" t="n">
+        <v>4</v>
+      </c>
       <c r="H69" t="n">
-        <v>4</v>
+        <v>8078</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1379</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4830</v>
       </c>
     </row>
     <row r="70">
@@ -3208,31 +3354,33 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D70" t="n">
+        <v>9675</v>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>9675</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
           <t>01/01/2017</t>
         </is>
       </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>8020</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1655</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4878</v>
       </c>
     </row>
     <row r="71">
@@ -3248,31 +3396,33 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D71" t="n">
+        <v>9512</v>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>9512</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
           <t>01/01/2017</t>
         </is>
       </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>7995</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1517</v>
+      </c>
+      <c r="J71" t="n">
+        <v>4813</v>
       </c>
     </row>
     <row r="72">
@@ -3288,31 +3438,33 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D72" t="n">
+        <v>9611</v>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>9611</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
           <t>01/01/2017</t>
         </is>
       </c>
+      <c r="G72" t="n">
+        <v>3</v>
+      </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>8152</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1459</v>
+      </c>
+      <c r="J72" t="n">
+        <v>4814</v>
       </c>
     </row>
     <row r="73">
@@ -3328,31 +3480,33 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D73" t="n">
+        <v>10233</v>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10233</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
           <t>01/01/2017</t>
         </is>
       </c>
+      <c r="G73" t="n">
+        <v>4</v>
+      </c>
       <c r="H73" t="n">
-        <v>4</v>
+        <v>8741</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1493</v>
+      </c>
+      <c r="J73" t="n">
+        <v>5088</v>
       </c>
     </row>
     <row r="74">
@@ -3368,31 +3522,33 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D74" t="n">
+        <v>10065</v>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10065</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
           <t>01/01/2018</t>
         </is>
       </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>8448</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1617</v>
+      </c>
+      <c r="J74" t="n">
+        <v>5206</v>
       </c>
     </row>
     <row r="75">
@@ -3408,31 +3564,33 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D75" t="n">
+        <v>10277</v>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10277</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
           <t>01/01/2018</t>
         </is>
       </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>8722</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1555</v>
+      </c>
+      <c r="J75" t="n">
+        <v>5295</v>
       </c>
     </row>
     <row r="76">
@@ -3448,31 +3606,33 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D76" t="n">
+        <v>10410</v>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10410</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
           <t>01/01/2018</t>
         </is>
       </c>
+      <c r="G76" t="n">
+        <v>3</v>
+      </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>8881</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1530</v>
+      </c>
+      <c r="J76" t="n">
+        <v>5187</v>
       </c>
     </row>
     <row r="77">
@@ -3488,31 +3648,33 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D77" t="n">
+        <v>10926</v>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10926</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
           <t>01/01/2018</t>
         </is>
       </c>
+      <c r="G77" t="n">
+        <v>4</v>
+      </c>
       <c r="H77" t="n">
-        <v>4</v>
+        <v>9325</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1601</v>
+      </c>
+      <c r="J77" t="n">
+        <v>5548</v>
       </c>
     </row>
     <row r="78">
@@ -3528,31 +3690,33 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D78" t="n">
+        <v>10899</v>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10899</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
           <t>01/01/2019</t>
         </is>
       </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>9141</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1758</v>
+      </c>
+      <c r="J78" t="n">
+        <v>5513</v>
       </c>
     </row>
     <row r="79">
@@ -3568,31 +3732,33 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D79" t="n">
+        <v>10991</v>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10991</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
           <t>01/01/2019</t>
         </is>
       </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>9389</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1602</v>
+      </c>
+      <c r="J79" t="n">
+        <v>5481</v>
       </c>
     </row>
     <row r="80">
@@ -3608,31 +3774,33 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D80" t="n">
+        <v>10887</v>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10887</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
           <t>01/01/2019</t>
         </is>
       </c>
+      <c r="G80" t="n">
+        <v>3</v>
+      </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>9257</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1630</v>
+      </c>
+      <c r="J80" t="n">
+        <v>5323</v>
       </c>
     </row>
     <row r="81">
@@ -3648,31 +3816,33 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D81" t="n">
+        <v>11456</v>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11456</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
           <t>01/01/2019</t>
         </is>
       </c>
+      <c r="G81" t="n">
+        <v>4</v>
+      </c>
       <c r="H81" t="n">
-        <v>4</v>
+        <v>9887</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1568</v>
+      </c>
+      <c r="J81" t="n">
+        <v>5607</v>
       </c>
     </row>
     <row r="82">
@@ -3688,31 +3858,33 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D82" t="n">
+        <v>11033</v>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>11033</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
           <t>01/01/2020</t>
         </is>
       </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>9341</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1692</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5593</v>
       </c>
     </row>
     <row r="83">
@@ -3728,31 +3900,33 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D83" t="n">
+        <v>9475</v>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>9475</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
           <t>01/01/2020</t>
         </is>
       </c>
+      <c r="G83" t="n">
+        <v>2</v>
+      </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>7763</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1712</v>
+      </c>
+      <c r="J83" t="n">
+        <v>6296</v>
       </c>
     </row>
     <row r="84">
@@ -3768,31 +3942,33 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D84" t="n">
+        <v>9635</v>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>9635</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
           <t>01/01/2020</t>
         </is>
       </c>
+      <c r="G84" t="n">
+        <v>3</v>
+      </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>7763</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1872</v>
+      </c>
+      <c r="J84" t="n">
+        <v>6218</v>
       </c>
     </row>
     <row r="85">
@@ -3808,31 +3984,33 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D85" t="n">
+        <v>10021</v>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>10021</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
           <t>01/01/2020</t>
         </is>
       </c>
+      <c r="G85" t="n">
+        <v>4</v>
+      </c>
       <c r="H85" t="n">
-        <v>4</v>
+        <v>8251</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1771</v>
+      </c>
+      <c r="J85" t="n">
+        <v>5973</v>
       </c>
     </row>
     <row r="86">
@@ -3848,31 +4026,33 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D86" t="n">
+        <v>10131</v>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>10131</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
           <t>01/01/2021</t>
         </is>
       </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>8229</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1902</v>
+      </c>
+      <c r="J86" t="n">
+        <v>5747</v>
       </c>
     </row>
     <row r="87">
@@ -3888,31 +4068,33 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D87" t="n">
+        <v>10533</v>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>10533</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
           <t>01/01/2021</t>
         </is>
       </c>
+      <c r="G87" t="n">
+        <v>2</v>
+      </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>8763</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1770</v>
+      </c>
+      <c r="J87" t="n">
+        <v>5756</v>
       </c>
     </row>
     <row r="88">
@@ -3928,31 +4110,33 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D88" t="n">
+        <v>11381</v>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>11381</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
           <t>01/01/2021</t>
         </is>
       </c>
+      <c r="G88" t="n">
+        <v>3</v>
+      </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>9583</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1799</v>
+      </c>
+      <c r="J88" t="n">
+        <v>5848</v>
       </c>
     </row>
     <row r="89">
@@ -3968,31 +4152,33 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D89" t="n">
+        <v>11908</v>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>11908</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
           <t>01/01/2021</t>
         </is>
       </c>
+      <c r="G89" t="n">
+        <v>4</v>
+      </c>
       <c r="H89" t="n">
-        <v>4</v>
+        <v>10288</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1620</v>
+      </c>
+      <c r="J89" t="n">
+        <v>6040</v>
       </c>
     </row>
     <row r="90">
@@ -4008,31 +4194,33 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D90" t="n">
+        <v>12082</v>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>12082</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
           <t>01/01/2022</t>
         </is>
       </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>10480</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1602</v>
+      </c>
+      <c r="J90" t="n">
+        <v>6388</v>
       </c>
     </row>
     <row r="91">
@@ -4048,31 +4236,33 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D91" t="n">
+        <v>12345</v>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
           <t>01/01/2022</t>
         </is>
       </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>10951</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1394</v>
+      </c>
+      <c r="J91" t="n">
+        <v>6411</v>
       </c>
     </row>
     <row r="92">
@@ -4088,31 +4278,33 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D92" t="n">
+        <v>12620</v>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>12620</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
           <t>01/01/2022</t>
         </is>
       </c>
+      <c r="G92" t="n">
+        <v>3</v>
+      </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>11216</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1404</v>
+      </c>
+      <c r="J92" t="n">
+        <v>6513</v>
       </c>
     </row>
     <row r="93">
@@ -4128,31 +4320,33 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D93" t="n">
+        <v>12635</v>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>12635</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
           <t>01/01/2022</t>
         </is>
       </c>
+      <c r="G93" t="n">
+        <v>4</v>
+      </c>
       <c r="H93" t="n">
-        <v>4</v>
+        <v>11384</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1251</v>
+      </c>
+      <c r="J93" t="n">
+        <v>6743</v>
       </c>
     </row>
     <row r="94">
@@ -4168,31 +4362,33 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D94" t="n">
+        <v>12700</v>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>12700</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
           <t>01/01/2023</t>
         </is>
       </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>11263</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1437</v>
+      </c>
+      <c r="J94" t="n">
+        <v>6813</v>
       </c>
     </row>
     <row r="95">
@@ -4208,31 +4404,33 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D95" t="n">
+        <v>12505</v>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>12505</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
           <t>01/01/2023</t>
         </is>
       </c>
+      <c r="G95" t="n">
+        <v>2</v>
+      </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>11250</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1254</v>
+      </c>
+      <c r="J95" t="n">
+        <v>6768</v>
       </c>
     </row>
     <row r="96">
@@ -4248,31 +4446,33 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D96" t="n">
+        <v>12459</v>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>12459</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
           <t>01/01/2023</t>
         </is>
       </c>
+      <c r="G96" t="n">
+        <v>3</v>
+      </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>11261</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1198</v>
+      </c>
+      <c r="J96" t="n">
+        <v>6689</v>
       </c>
     </row>
     <row r="97">
@@ -4288,31 +4488,33 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D97" t="n">
+        <v>12819</v>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>12819</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
           <t>01/01/2023</t>
         </is>
       </c>
+      <c r="G97" t="n">
+        <v>4</v>
+      </c>
       <c r="H97" t="n">
-        <v>4</v>
+        <v>11672</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1147</v>
+      </c>
+      <c r="J97" t="n">
+        <v>6663</v>
       </c>
     </row>
     <row r="98">
@@ -4328,31 +4530,33 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D98" t="n">
+        <v>40929</v>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>40929</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
           <t>01/01/2012</t>
         </is>
       </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>37176</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3753</v>
+      </c>
+      <c r="J98" t="n">
+        <v>25749</v>
       </c>
     </row>
     <row r="99">
@@ -4368,31 +4572,33 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D99" t="n">
+        <v>42586</v>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>42586</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
           <t>01/01/2012</t>
         </is>
       </c>
+      <c r="G99" t="n">
+        <v>2</v>
+      </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>38854</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3732</v>
+      </c>
+      <c r="J99" t="n">
+        <v>26512</v>
       </c>
     </row>
     <row r="100">
@@ -4408,31 +4614,33 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D100" t="n">
+        <v>42826</v>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>42826</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
           <t>01/01/2012</t>
         </is>
       </c>
+      <c r="G100" t="n">
+        <v>3</v>
+      </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>39217</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3609</v>
+      </c>
+      <c r="J100" t="n">
+        <v>26898</v>
       </c>
     </row>
     <row r="101">
@@ -4448,31 +4656,33 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D101" t="n">
+        <v>43352</v>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>43352</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
           <t>01/01/2012</t>
         </is>
       </c>
+      <c r="G101" t="n">
+        <v>4</v>
+      </c>
       <c r="H101" t="n">
-        <v>4</v>
+        <v>39814</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3538</v>
+      </c>
+      <c r="J101" t="n">
+        <v>27425</v>
       </c>
     </row>
     <row r="102">
@@ -4488,31 +4698,33 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D102" t="n">
+        <v>44077</v>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>44077</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
           <t>01/01/2013</t>
         </is>
       </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>39884</v>
+      </c>
+      <c r="I102" t="n">
+        <v>4193</v>
+      </c>
+      <c r="J102" t="n">
+        <v>27814</v>
       </c>
     </row>
     <row r="103">
@@ -4528,31 +4740,33 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D103" t="n">
+        <v>44256</v>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>44256</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
           <t>01/01/2013</t>
         </is>
       </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>40338</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3918</v>
+      </c>
+      <c r="J103" t="n">
+        <v>27784</v>
       </c>
     </row>
     <row r="104">
@@ -4568,31 +4782,33 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D104" t="n">
+        <v>43591</v>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>43591</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
           <t>01/01/2013</t>
         </is>
       </c>
+      <c r="G104" t="n">
+        <v>3</v>
+      </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>40002</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3590</v>
+      </c>
+      <c r="J104" t="n">
+        <v>27533</v>
       </c>
     </row>
     <row r="105">
@@ -4608,31 +4824,33 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D105" t="n">
+        <v>43899</v>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>43899</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
           <t>01/01/2013</t>
         </is>
       </c>
+      <c r="G105" t="n">
+        <v>4</v>
+      </c>
       <c r="H105" t="n">
-        <v>4</v>
+        <v>40752</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3148</v>
+      </c>
+      <c r="J105" t="n">
+        <v>27813</v>
       </c>
     </row>
     <row r="106">
@@ -4648,31 +4866,33 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D106" t="n">
+        <v>44110</v>
+      </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>44110</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
           <t>01/01/2014</t>
         </is>
       </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>40415</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3695</v>
+      </c>
+      <c r="J106" t="n">
+        <v>27740</v>
       </c>
     </row>
     <row r="107">
@@ -4688,31 +4908,33 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D107" t="n">
+        <v>44480</v>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>44480</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
           <t>01/01/2014</t>
         </is>
       </c>
+      <c r="G107" t="n">
+        <v>2</v>
+      </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>40907</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3574</v>
+      </c>
+      <c r="J107" t="n">
+        <v>27878</v>
       </c>
     </row>
     <row r="108">
@@ -4728,31 +4950,33 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D108" t="n">
+        <v>44857</v>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>44857</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
           <t>01/01/2014</t>
         </is>
       </c>
+      <c r="G108" t="n">
+        <v>3</v>
+      </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>41359</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3498</v>
+      </c>
+      <c r="J108" t="n">
+        <v>28245</v>
       </c>
     </row>
     <row r="109">
@@ -4768,31 +4992,33 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D109" t="n">
+        <v>44935</v>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>44935</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
           <t>01/01/2014</t>
         </is>
       </c>
+      <c r="G109" t="n">
+        <v>4</v>
+      </c>
       <c r="H109" t="n">
-        <v>4</v>
+        <v>41551</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3384</v>
+      </c>
+      <c r="J109" t="n">
+        <v>28440</v>
       </c>
     </row>
     <row r="110">
@@ -4808,31 +5034,33 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D110" t="n">
+        <v>45597</v>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>45597</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
           <t>01/01/2015</t>
         </is>
       </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>41370</v>
+      </c>
+      <c r="I110" t="n">
+        <v>4226</v>
+      </c>
+      <c r="J110" t="n">
+        <v>28655</v>
       </c>
     </row>
     <row r="111">
@@ -4848,31 +5076,33 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D111" t="n">
+        <v>45547</v>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>45547</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
           <t>01/01/2015</t>
         </is>
       </c>
+      <c r="G111" t="n">
+        <v>2</v>
+      </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>41114</v>
+      </c>
+      <c r="I111" t="n">
+        <v>4433</v>
+      </c>
+      <c r="J111" t="n">
+        <v>28392</v>
       </c>
     </row>
     <row r="112">
@@ -4888,31 +5118,33 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D112" t="n">
+        <v>45715</v>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>45715</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
           <t>01/01/2015</t>
         </is>
       </c>
+      <c r="G112" t="n">
+        <v>3</v>
+      </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>40946</v>
+      </c>
+      <c r="I112" t="n">
+        <v>4770</v>
+      </c>
+      <c r="J112" t="n">
+        <v>28154</v>
       </c>
     </row>
     <row r="113">
@@ -4928,31 +5160,33 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D113" t="n">
+        <v>45133</v>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>45133</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
           <t>01/01/2015</t>
         </is>
       </c>
+      <c r="G113" t="n">
+        <v>4</v>
+      </c>
       <c r="H113" t="n">
-        <v>4</v>
+        <v>40463</v>
+      </c>
+      <c r="I113" t="n">
+        <v>4670</v>
+      </c>
+      <c r="J113" t="n">
+        <v>28295</v>
       </c>
     </row>
     <row r="114">
@@ -4968,31 +5202,33 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D114" t="n">
+        <v>45901</v>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>45901</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
           <t>01/01/2016</t>
         </is>
       </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>40036</v>
+      </c>
+      <c r="I114" t="n">
+        <v>5866</v>
+      </c>
+      <c r="J114" t="n">
+        <v>28627</v>
       </c>
     </row>
     <row r="115">
@@ -5008,31 +5244,33 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D115" t="n">
+        <v>45744</v>
+      </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>45744</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
           <t>01/01/2016</t>
         </is>
       </c>
+      <c r="G115" t="n">
+        <v>2</v>
+      </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>39807</v>
+      </c>
+      <c r="I115" t="n">
+        <v>5937</v>
+      </c>
+      <c r="J115" t="n">
+        <v>28659</v>
       </c>
     </row>
     <row r="116">
@@ -5048,31 +5286,33 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D116" t="n">
+        <v>45774</v>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>45774</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
           <t>01/01/2016</t>
         </is>
       </c>
+      <c r="G116" t="n">
+        <v>3</v>
+      </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>39486</v>
+      </c>
+      <c r="I116" t="n">
+        <v>6288</v>
+      </c>
+      <c r="J116" t="n">
+        <v>29219</v>
       </c>
     </row>
     <row r="117">
@@ -5088,31 +5328,33 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D117" t="n">
+        <v>46338</v>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>46338</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
           <t>01/01/2016</t>
         </is>
       </c>
+      <c r="G117" t="n">
+        <v>4</v>
+      </c>
       <c r="H117" t="n">
-        <v>4</v>
+        <v>39746</v>
+      </c>
+      <c r="I117" t="n">
+        <v>6591</v>
+      </c>
+      <c r="J117" t="n">
+        <v>29546</v>
       </c>
     </row>
     <row r="118">
@@ -5128,31 +5370,33 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D118" t="n">
+        <v>46421</v>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>46421</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
           <t>01/01/2017</t>
         </is>
       </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>38937</v>
+      </c>
+      <c r="I118" t="n">
+        <v>7484</v>
+      </c>
+      <c r="J118" t="n">
+        <v>29649</v>
       </c>
     </row>
     <row r="119">
@@ -5168,31 +5412,33 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D119" t="n">
+        <v>47285</v>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>47285</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
           <t>01/01/2017</t>
         </is>
       </c>
+      <c r="G119" t="n">
+        <v>2</v>
+      </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>40096</v>
+      </c>
+      <c r="I119" t="n">
+        <v>7189</v>
+      </c>
+      <c r="J119" t="n">
+        <v>29544</v>
       </c>
     </row>
     <row r="120">
@@ -5208,31 +5454,33 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D120" t="n">
+        <v>47341</v>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>47341</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
           <t>01/01/2017</t>
         </is>
       </c>
+      <c r="G120" t="n">
+        <v>3</v>
+      </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>40461</v>
+      </c>
+      <c r="I120" t="n">
+        <v>6880</v>
+      </c>
+      <c r="J120" t="n">
+        <v>29470</v>
       </c>
     </row>
     <row r="121">
@@ -5248,31 +5496,33 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D121" t="n">
+        <v>47427</v>
+      </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>47427</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
           <t>01/01/2017</t>
         </is>
       </c>
+      <c r="G121" t="n">
+        <v>4</v>
+      </c>
       <c r="H121" t="n">
-        <v>4</v>
+        <v>40949</v>
+      </c>
+      <c r="I121" t="n">
+        <v>6478</v>
+      </c>
+      <c r="J121" t="n">
+        <v>29610</v>
       </c>
     </row>
     <row r="122">
@@ -5288,31 +5538,33 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D122" t="n">
+        <v>47999</v>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>47999</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
           <t>01/01/2018</t>
         </is>
       </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>40685</v>
+      </c>
+      <c r="I122" t="n">
+        <v>7315</v>
+      </c>
+      <c r="J122" t="n">
+        <v>29804</v>
       </c>
     </row>
     <row r="123">
@@ -5328,31 +5580,33 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D123" t="n">
+        <v>47412</v>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>47412</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
           <t>01/01/2018</t>
         </is>
       </c>
+      <c r="G123" t="n">
+        <v>2</v>
+      </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>40515</v>
+      </c>
+      <c r="I123" t="n">
+        <v>6897</v>
+      </c>
+      <c r="J123" t="n">
+        <v>29942</v>
       </c>
     </row>
     <row r="124">
@@ -5368,31 +5622,33 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D124" t="n">
+        <v>47791</v>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>47791</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
           <t>01/01/2018</t>
         </is>
       </c>
+      <c r="G124" t="n">
+        <v>3</v>
+      </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>41137</v>
+      </c>
+      <c r="I124" t="n">
+        <v>6654</v>
+      </c>
+      <c r="J124" t="n">
+        <v>29680</v>
       </c>
     </row>
     <row r="125">
@@ -5408,31 +5664,33 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D125" t="n">
+        <v>47874</v>
+      </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>47874</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
           <t>01/01/2018</t>
         </is>
       </c>
+      <c r="G125" t="n">
+        <v>4</v>
+      </c>
       <c r="H125" t="n">
-        <v>4</v>
+        <v>41445</v>
+      </c>
+      <c r="I125" t="n">
+        <v>6429</v>
+      </c>
+      <c r="J125" t="n">
+        <v>29458</v>
       </c>
     </row>
     <row r="126">
@@ -5448,31 +5706,33 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D126" t="n">
+        <v>47944</v>
+      </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>47944</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
           <t>01/01/2019</t>
         </is>
       </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>40920</v>
+      </c>
+      <c r="I126" t="n">
+        <v>7025</v>
+      </c>
+      <c r="J126" t="n">
+        <v>29823</v>
       </c>
     </row>
     <row r="127">
@@ -5488,31 +5748,33 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D127" t="n">
+        <v>48400</v>
+      </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>48400</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
           <t>01/01/2019</t>
         </is>
       </c>
+      <c r="G127" t="n">
+        <v>2</v>
+      </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>41583</v>
+      </c>
+      <c r="I127" t="n">
+        <v>6816</v>
+      </c>
+      <c r="J127" t="n">
+        <v>29508</v>
       </c>
     </row>
     <row r="128">
@@ -5528,31 +5790,33 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D128" t="n">
+        <v>49052</v>
+      </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>49052</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
           <t>01/01/2019</t>
         </is>
       </c>
+      <c r="G128" t="n">
+        <v>3</v>
+      </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>42297</v>
+      </c>
+      <c r="I128" t="n">
+        <v>6755</v>
+      </c>
+      <c r="J128" t="n">
+        <v>29544</v>
       </c>
     </row>
     <row r="129">
@@ -5568,31 +5832,33 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D129" t="n">
+        <v>48786</v>
+      </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>48786</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
           <t>01/01/2019</t>
         </is>
       </c>
+      <c r="G129" t="n">
+        <v>4</v>
+      </c>
       <c r="H129" t="n">
-        <v>4</v>
+        <v>42591</v>
+      </c>
+      <c r="I129" t="n">
+        <v>6195</v>
+      </c>
+      <c r="J129" t="n">
+        <v>30187</v>
       </c>
     </row>
     <row r="130">
@@ -5608,31 +5874,33 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D130" t="n">
+        <v>48105</v>
+      </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>48105</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
           <t>01/01/2020</t>
         </is>
       </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>41308</v>
+      </c>
+      <c r="I130" t="n">
+        <v>6798</v>
+      </c>
+      <c r="J130" t="n">
+        <v>30712</v>
       </c>
     </row>
     <row r="131">
@@ -5648,31 +5916,33 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D131" t="n">
+        <v>43298</v>
+      </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>43298</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
           <t>01/01/2020</t>
         </is>
       </c>
+      <c r="G131" t="n">
+        <v>2</v>
+      </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>36502</v>
+      </c>
+      <c r="I131" t="n">
+        <v>6797</v>
+      </c>
+      <c r="J131" t="n">
+        <v>35328</v>
       </c>
     </row>
     <row r="132">
@@ -5688,31 +5958,33 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D132" t="n">
+        <v>44036</v>
+      </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>44036</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
           <t>01/01/2020</t>
         </is>
       </c>
+      <c r="G132" t="n">
+        <v>3</v>
+      </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>36630</v>
+      </c>
+      <c r="I132" t="n">
+        <v>7406</v>
+      </c>
+      <c r="J132" t="n">
+        <v>34410</v>
       </c>
     </row>
     <row r="133">
@@ -5728,31 +6000,33 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D133" t="n">
+        <v>45257</v>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>45257</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
           <t>01/01/2020</t>
         </is>
       </c>
+      <c r="G133" t="n">
+        <v>4</v>
+      </c>
       <c r="H133" t="n">
-        <v>4</v>
+        <v>37997</v>
+      </c>
+      <c r="I133" t="n">
+        <v>7260</v>
+      </c>
+      <c r="J133" t="n">
+        <v>32312</v>
       </c>
     </row>
     <row r="134">
@@ -5768,31 +6042,33 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D134" t="n">
+        <v>45865</v>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>45865</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
           <t>01/01/2021</t>
         </is>
       </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>38062</v>
+      </c>
+      <c r="I134" t="n">
+        <v>7803</v>
+      </c>
+      <c r="J134" t="n">
+        <v>32133</v>
       </c>
     </row>
     <row r="135">
@@ -5808,31 +6084,33 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D135" t="n">
+        <v>46497</v>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>46497</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
           <t>01/01/2021</t>
         </is>
       </c>
+      <c r="G135" t="n">
+        <v>2</v>
+      </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>38959</v>
+      </c>
+      <c r="I135" t="n">
+        <v>7538</v>
+      </c>
+      <c r="J135" t="n">
+        <v>31655</v>
       </c>
     </row>
     <row r="136">
@@ -5848,31 +6126,33 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D136" t="n">
+        <v>47297</v>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>47297</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
           <t>01/01/2021</t>
         </is>
       </c>
+      <c r="G136" t="n">
+        <v>3</v>
+      </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>40574</v>
+      </c>
+      <c r="I136" t="n">
+        <v>6723</v>
+      </c>
+      <c r="J136" t="n">
+        <v>30630</v>
       </c>
     </row>
     <row r="137">
@@ -5888,31 +6168,33 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D137" t="n">
+        <v>47458</v>
+      </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>47458</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
           <t>01/01/2021</t>
         </is>
       </c>
+      <c r="G137" t="n">
+        <v>4</v>
+      </c>
       <c r="H137" t="n">
-        <v>4</v>
+        <v>41455</v>
+      </c>
+      <c r="I137" t="n">
+        <v>6003</v>
+      </c>
+      <c r="J137" t="n">
+        <v>30159</v>
       </c>
     </row>
     <row r="138">
@@ -5928,31 +6210,33 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D138" t="n">
+        <v>47161</v>
+      </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>47161</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
           <t>01/01/2022</t>
         </is>
       </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>41094</v>
+      </c>
+      <c r="I138" t="n">
+        <v>6067</v>
+      </c>
+      <c r="J138" t="n">
+        <v>30464</v>
       </c>
     </row>
     <row r="139">
@@ -5968,31 +6252,33 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D139" t="n">
+        <v>47492</v>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>47492</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
           <t>01/01/2022</t>
         </is>
       </c>
+      <c r="G139" t="n">
+        <v>2</v>
+      </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>42365</v>
+      </c>
+      <c r="I139" t="n">
+        <v>5127</v>
+      </c>
+      <c r="J139" t="n">
+        <v>29944</v>
       </c>
     </row>
     <row r="140">
@@ -6008,31 +6294,33 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D140" t="n">
+        <v>47428</v>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>47428</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
           <t>01/01/2022</t>
         </is>
       </c>
+      <c r="G140" t="n">
+        <v>3</v>
+      </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>42696</v>
+      </c>
+      <c r="I140" t="n">
+        <v>4732</v>
+      </c>
+      <c r="J140" t="n">
+        <v>29771</v>
       </c>
     </row>
     <row r="141">
@@ -6048,31 +6336,33 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D141" t="n">
+        <v>47257</v>
+      </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>47257</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
           <t>01/01/2022</t>
         </is>
       </c>
+      <c r="G141" t="n">
+        <v>4</v>
+      </c>
       <c r="H141" t="n">
-        <v>4</v>
+        <v>42907</v>
+      </c>
+      <c r="I141" t="n">
+        <v>4350</v>
+      </c>
+      <c r="J141" t="n">
+        <v>30525</v>
       </c>
     </row>
     <row r="142">
@@ -6088,31 +6378,33 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D142" t="n">
+        <v>46893</v>
+      </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>46893</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
           <t>01/01/2023</t>
         </is>
       </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>42136</v>
+      </c>
+      <c r="I142" t="n">
+        <v>4758</v>
+      </c>
+      <c r="J142" t="n">
+        <v>31208</v>
       </c>
     </row>
     <row r="143">
@@ -6128,31 +6420,33 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D143" t="n">
+        <v>47030</v>
+      </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>47030</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
           <t>01/01/2023</t>
         </is>
       </c>
+      <c r="G143" t="n">
+        <v>2</v>
+      </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>42656</v>
+      </c>
+      <c r="I143" t="n">
+        <v>4374</v>
+      </c>
+      <c r="J143" t="n">
+        <v>31207</v>
       </c>
     </row>
     <row r="144">
@@ -6168,31 +6462,33 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D144" t="n">
+        <v>47505</v>
+      </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>47505</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
           <t>01/01/2023</t>
         </is>
       </c>
+      <c r="G144" t="n">
+        <v>3</v>
+      </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>43283</v>
+      </c>
+      <c r="I144" t="n">
+        <v>4222</v>
+      </c>
+      <c r="J144" t="n">
+        <v>31092</v>
       </c>
     </row>
     <row r="145">
@@ -6208,31 +6504,33 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D145" t="n">
+        <v>47996</v>
+      </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>47996</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
           <t>01/01/2023</t>
         </is>
       </c>
+      <c r="G145" t="n">
+        <v>4</v>
+      </c>
       <c r="H145" t="n">
-        <v>4</v>
+        <v>43896</v>
+      </c>
+      <c r="I145" t="n">
+        <v>4100</v>
+      </c>
+      <c r="J145" t="n">
+        <v>30916</v>
       </c>
     </row>
   </sheetData>
